--- a/workspace/sample_point.xlsx
+++ b/workspace/sample_point.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ED8420-9A02-4631-8FE2-0773F764E3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BFD280-7547-4E60-B0E8-39E53CF93C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35265" yWindow="1830" windowWidth="16620" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -471,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,4 +680,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB94FA5F-14AA-48C8-8B47-84B87872AA93}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>115.19999999999999</v>
+      </c>
+      <c r="B1">
+        <v>11.520992294681449</v>
+      </c>
+      <c r="C1">
+        <v>98.842676311030687</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>